--- a/medicine/Psychotrope/Weißbierbrauerei_Hopf/Weißbierbrauerei_Hopf.xlsx
+++ b/medicine/Psychotrope/Weißbierbrauerei_Hopf/Weißbierbrauerei_Hopf.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Wei%C3%9Fbierbrauerei_Hopf</t>
+          <t>Weißbierbrauerei_Hopf</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 La Weißbierbrauerei Hopf GmbH (Hopf-Brauerei) est une brasserie à Miesbach.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Wei%C3%9Fbierbrauerei_Hopf</t>
+          <t>Weißbierbrauerei_Hopf</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,11 +524,13 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La brasserie est fondée en 1892 en tant que Weißbierbrauerei Miesbach. À la suite de la révolution allemande de 1918-1919, en 1921 la famille Hopf reprend la brasserie et, en 1950, créé la cave d'embouteillage et de stockage à l'emplacement actuel. Depuis 1975, la production de bière est passée de 3 000 à 40 000 hectolitres[1]. En 2006, la Hopf-Brauerei est rachetée par Hacker-Pschorr[2].
-La brasserie produit plusieurs types de bière de blé, brassées conformément au décret sur la pureté de la bière bavaroise qui limite le nombre d'ingrédients à utiliser dans sa fabrication[1].
-Ses bières sont commercialisées en Autriche, en Italie, en France et en Angleterre, ainsi qu'en Russie, au Canada, en Malaisie et aux États-Unis[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La brasserie est fondée en 1892 en tant que Weißbierbrauerei Miesbach. À la suite de la révolution allemande de 1918-1919, en 1921 la famille Hopf reprend la brasserie et, en 1950, créé la cave d'embouteillage et de stockage à l'emplacement actuel. Depuis 1975, la production de bière est passée de 3 000 à 40 000 hectolitres. En 2006, la Hopf-Brauerei est rachetée par Hacker-Pschorr.
+La brasserie produit plusieurs types de bière de blé, brassées conformément au décret sur la pureté de la bière bavaroise qui limite le nombre d'ingrédients à utiliser dans sa fabrication.
+Ses bières sont commercialisées en Autriche, en Italie, en France et en Angleterre, ainsi qu'en Russie, au Canada, en Malaisie et aux États-Unis.
 </t>
         </is>
       </c>
@@ -527,7 +541,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Wei%C3%9Fbierbrauerei_Hopf</t>
+          <t>Weißbierbrauerei_Hopf</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -545,7 +559,9 @@
           <t>Production</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Hopf Helle Weiße
 Hopf Dunkle Weiße
